--- a/Project/공공 데이터 기반의 카페 입지 전략 분석/analyzed_data/서울_행정동_데이터.xlsx
+++ b/Project/공공 데이터 기반의 카페 입지 전략 분석/analyzed_data/서울_행정동_데이터.xlsx
@@ -12000,7 +12000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>행정동_명</t>
+          <t>행정동_코드_명</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -12032,6 +12032,11 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>영역_면적</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>임대료(천원/㎡)</t>
         </is>
       </c>
     </row>
@@ -12043,7 +12048,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>아현동</t>
+          <t>공덕동</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12060,6 +12065,9 @@
         <is>
           <t>744328</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -12070,7 +12078,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>공덕동</t>
+          <t>서교동</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -12087,6 +12095,9 @@
         <is>
           <t>1019197</t>
         </is>
+      </c>
+      <c r="F3" t="n">
+        <v>43.7</v>
       </c>
     </row>
     <row r="4">
@@ -12097,7 +12108,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>도화동</t>
+          <t>연남동</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -12114,6 +12125,9 @@
         <is>
           <t>625018</t>
         </is>
+      </c>
+      <c r="F4" t="n">
+        <v>43.7</v>
       </c>
     </row>
     <row r="5">
@@ -12124,7 +12138,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>망원2동</t>
+          <t>망원1동</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12141,6 +12155,9 @@
         <is>
           <t>676411</t>
         </is>
+      </c>
+      <c r="F5" t="n">
+        <v>32.4</v>
       </c>
     </row>
     <row r="6">
@@ -12151,7 +12168,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>연남동</t>
+          <t>망원2동</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12168,6 +12185,9 @@
         <is>
           <t>647438</t>
         </is>
+      </c>
+      <c r="F6" t="n">
+        <v>32.4</v>
       </c>
     </row>
     <row r="7">
@@ -12178,7 +12198,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>성산1동</t>
+          <t>염리동</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -12195,6 +12215,9 @@
         <is>
           <t>859254</t>
         </is>
+      </c>
+      <c r="F7" t="n">
+        <v>63.3</v>
       </c>
     </row>
     <row r="8">
@@ -12205,7 +12228,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>성산2동</t>
+          <t>서강동</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12222,6 +12245,9 @@
         <is>
           <t>1978724</t>
         </is>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -12232,7 +12258,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>상암동</t>
+          <t>합정동</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12249,6 +12275,9 @@
         <is>
           <t>8402415</t>
         </is>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -12259,7 +12288,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>용강동</t>
+          <t>아현동</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12276,6 +12305,9 @@
         <is>
           <t>790602</t>
         </is>
+      </c>
+      <c r="F10" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="11">
@@ -12286,7 +12318,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>대흥동</t>
+          <t>도화동</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -12303,6 +12335,9 @@
         <is>
           <t>858570</t>
         </is>
+      </c>
+      <c r="F11" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="12">
@@ -12313,7 +12348,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>염리동</t>
+          <t>성산1동</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -12330,6 +12365,9 @@
         <is>
           <t>491468</t>
         </is>
+      </c>
+      <c r="F12" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="13">
@@ -12340,7 +12378,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>신수동</t>
+          <t>성산2동</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -12357,6 +12395,9 @@
         <is>
           <t>797879</t>
         </is>
+      </c>
+      <c r="F13" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="14">
@@ -12367,7 +12408,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>서강동</t>
+          <t>상암동</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -12384,6 +12425,9 @@
         <is>
           <t>1478577</t>
         </is>
+      </c>
+      <c r="F14" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="15">
@@ -12394,7 +12438,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>서교동</t>
+          <t>용강동</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12411,6 +12455,9 @@
         <is>
           <t>1678981</t>
         </is>
+      </c>
+      <c r="F15" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="16">
@@ -12421,7 +12468,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>합정동</t>
+          <t>대흥동</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12438,6 +12485,9 @@
         <is>
           <t>1712389</t>
         </is>
+      </c>
+      <c r="F16" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="17">
@@ -12448,7 +12498,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>망원1동</t>
+          <t>신수동</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -12465,6 +12515,9 @@
         <is>
           <t>1101005</t>
         </is>
+      </c>
+      <c r="F17" t="n">
+        <v>47.1</v>
       </c>
     </row>
   </sheetData>
